--- a/hw5/svet.xlsx
+++ b/hw5/svet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1820" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="405">
   <si>
     <t>― Ладно, бабочка, ― сказал я, разгоняя крыльями пыльцу, ― только появись на свет, я тебе все ноги…</t>
   </si>
@@ -266,18 +266,12 @@
     <t>Сознание― свет, бьющий наружу, сознание освещает перед нами дорогу, чтобы не споткнуться.</t>
   </si>
   <si>
-    <t>Дурацкие изобретения имеют право если не на жизнь, то на свет</t>
-  </si>
-  <si>
     <t>Ни разу не видел в Токио, чтобы какая-то машина с мигалкой (кроме, естественно, полиции или «скорой помощи») ехала на красный свет или проносилась по трассе, специально очищенной для неё от автомобилей простолюдинов.</t>
   </si>
   <si>
     <t>И тем не менее начали: свет погасили, звук включили, полностью компенсируя предыдущее его отсутствие ― от некоторых возгласов персонажей позванивали стаканы на столах.</t>
   </si>
   <si>
-    <t>К тому же это ещё и большая многосерийная цитата из "Покровских ворот": и ситуации местами те же, и дворы такие же, и свет явно так же поставлен, а актёров подобрали если уж и не внешне, то по пластике и мимике, а также по манере речи весьма напоминающих героев знаменитого фильма Козакова.</t>
-  </si>
-  <si>
     <t>Расследование начнётся после выхода книги в свет.</t>
   </si>
   <si>
@@ -287,9 +281,6 @@
     <t>Он нёс свет знаний в массы ― выступал на кораблях Балтики, спускался в шахты Донбасса.</t>
   </si>
   <si>
-    <t>Хуже, когда зритель говорит: пели плохо, зато какие декорации и свет!</t>
-  </si>
-  <si>
     <t>Зеркальный шар под потолком погнал по льду метель ― изобретение, между прочим, многодесятилетней давности. Потом свет включили.</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>― Ну вот! Весь белый свет знает. Залезут и упрут.</t>
   </si>
   <si>
-    <t>Но ещё не погас в мире летний призрачный свет.</t>
-  </si>
-  <si>
     <t xml:space="preserve">На свет, а может, на цветочный дух на веранду стали слетаться ночные мотыльки да бабочки, кружась возле абажура и освещённого букета. </t>
   </si>
   <si>
@@ -419,18 +407,12 @@
     <t>Она вошла в свой номер ― там было темно, ― щелкнула выключателем, свет не зажёгся.</t>
   </si>
   <si>
-    <t>Розовый свет на красноватых, со смуглотой, древних кирпичных башнях.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ирина закрывала глаза и молилась, чтобы ребёнок не появился на свет. </t>
   </si>
   <si>
     <t>Жалко было будить. Ирина зажигала свет. Алечкины веки вздрагивали.</t>
   </si>
   <si>
-    <t>Пели птицы. Солнышко мягко сеяло свет сквозь листву. В муравейнике шуровали муравьи.</t>
-  </si>
-  <si>
     <t>Кругом было темно, а в доме тридцать три горел свет.</t>
   </si>
   <si>
@@ -452,9 +434,6 @@
     <t>Мне не спалось на станционной скамье, и я чуть свет опять побрёл по посёлку.</t>
   </si>
   <si>
-    <t>Они разрослись привольно, забирая небогатый свет северной стороны.</t>
-  </si>
-  <si>
     <t>И другая революция. И весь свет перевернулся. ― Мать у них умерла ― и присватался ко мне Ефим.</t>
   </si>
   <si>
@@ -539,9 +518,6 @@
     <t>Приехал на Пятницкую, в чуланчике при кухне склонился над остатками картошки. Включил свет, рассматривал плоды земли гороховейской.</t>
   </si>
   <si>
-    <t>Ни звука с пятого этажа, свет только на кухне, братья, видимо, угомонились, повыкидывали девок.</t>
-  </si>
-  <si>
     <t>Ещё не тушили свет, хоть все лежали на своих койках и готовы были отойти ко сну.</t>
   </si>
   <si>
@@ -554,9 +530,6 @@
     <t xml:space="preserve">Не припозднишься на балах ― чуть свет бодрствуешь. </t>
   </si>
   <si>
-    <t>Явился на свет, зачесывая расчёской волосы набок, при двух рядах наград на гимнастёрке и, пристально глянув на дивчину, мятую, патлатую со сна, поинтересовался</t>
-  </si>
-  <si>
     <t>Иногда, поздней ночью, к ним спускалась Виталия Гордеевна, заявляя, что у них свет горит, вот она на огонёк и завернула.</t>
   </si>
   <si>
@@ -599,9 +572,6 @@
     <t>Верхний свет был выключен, горели торшер и бра.</t>
   </si>
   <si>
-    <t>Воздух стал какой-то особенный, не летний, и свет тоже…</t>
-  </si>
-  <si>
     <t>Стюардессы в салоне погасили свет, чтобы лучше был виден город.</t>
   </si>
   <si>
@@ -635,21 +605,12 @@
     <t>я</t>
   </si>
   <si>
-    <t>потушили</t>
-  </si>
-  <si>
     <t>и</t>
   </si>
   <si>
-    <t>зажгли</t>
-  </si>
-  <si>
     <t>все</t>
   </si>
   <si>
-    <t>гасят</t>
-  </si>
-  <si>
     <t>лунный</t>
   </si>
   <si>
@@ -665,33 +626,12 @@
     <t>чуть</t>
   </si>
   <si>
-    <t>приешл</t>
-  </si>
-  <si>
-    <t>рассекал</t>
-  </si>
-  <si>
-    <t>молний</t>
-  </si>
-  <si>
-    <t>вобрав</t>
-  </si>
-  <si>
-    <t>казались</t>
-  </si>
-  <si>
-    <t>погас</t>
-  </si>
-  <si>
     <t>а</t>
   </si>
   <si>
     <t>дневной</t>
   </si>
   <si>
-    <t>появился</t>
-  </si>
-  <si>
     <t>бледный</t>
   </si>
   <si>
@@ -701,42 +641,15 @@
     <t>некоторый</t>
   </si>
   <si>
-    <t>таких</t>
-  </si>
-  <si>
-    <t>был</t>
-  </si>
-  <si>
-    <t>стало</t>
-  </si>
-  <si>
     <t>мой</t>
   </si>
   <si>
-    <t>ы</t>
-  </si>
-  <si>
-    <t>президентского</t>
-  </si>
-  <si>
-    <t>пролить</t>
-  </si>
-  <si>
     <t>дочку</t>
   </si>
   <si>
-    <t>выключить</t>
-  </si>
-  <si>
-    <t>родители</t>
-  </si>
-  <si>
     <t>тут</t>
   </si>
   <si>
-    <t>гаснет</t>
-  </si>
-  <si>
     <t>ее</t>
   </si>
   <si>
@@ -749,117 +662,57 @@
     <t>подросток</t>
   </si>
   <si>
-    <t>ржавыми</t>
-  </si>
-  <si>
-    <t>гасите</t>
-  </si>
-  <si>
     <t>верхний</t>
   </si>
   <si>
-    <t>девочки</t>
-  </si>
-  <si>
-    <t>новой</t>
-  </si>
-  <si>
     <t>неоновый</t>
   </si>
   <si>
-    <t>сглаживает</t>
-  </si>
-  <si>
-    <t>увидел</t>
-  </si>
-  <si>
-    <t>разгоняет</t>
-  </si>
-  <si>
     <t>есть</t>
   </si>
   <si>
     <t>тепло</t>
   </si>
   <si>
-    <t>тебе</t>
-  </si>
-  <si>
-    <t>окаменеет</t>
-  </si>
-  <si>
-    <t>проливает</t>
-  </si>
-  <si>
     <t>Христов</t>
   </si>
   <si>
     <t>из</t>
   </si>
   <si>
-    <t>фонарей</t>
-  </si>
-  <si>
     <t>почему</t>
   </si>
   <si>
     <t>неестественный</t>
   </si>
   <si>
-    <t>маленькие</t>
-  </si>
-  <si>
     <t>книга</t>
   </si>
   <si>
-    <t>излучают</t>
-  </si>
-  <si>
     <t>что</t>
   </si>
   <si>
     <t>воспринимать</t>
   </si>
   <si>
-    <t>измеряют</t>
-  </si>
-  <si>
     <t>шум</t>
   </si>
   <si>
-    <t>зданиях</t>
-  </si>
-  <si>
-    <t>льется</t>
-  </si>
-  <si>
     <t>новый</t>
   </si>
   <si>
-    <t>причалили</t>
-  </si>
-  <si>
     <t>морской</t>
   </si>
   <si>
     <t>старый</t>
   </si>
   <si>
-    <t>гонщики</t>
-  </si>
-  <si>
-    <t>научно-популярная</t>
-  </si>
-  <si>
     <t>без</t>
   </si>
   <si>
     <t>высший</t>
   </si>
   <si>
-    <t>принялся</t>
-  </si>
-  <si>
     <t>весь</t>
   </si>
   <si>
@@ -869,30 +722,536 @@
     <t>2-й</t>
   </si>
   <si>
-    <t>появляется</t>
-  </si>
-  <si>
     <t>не</t>
   </si>
   <si>
     <t>сознание</t>
+  </si>
+  <si>
+    <t>или</t>
+  </si>
+  <si>
+    <t>головной</t>
+  </si>
+  <si>
+    <t>потом</t>
+  </si>
+  <si>
+    <t>но</t>
+  </si>
+  <si>
+    <t>Божий</t>
+  </si>
+  <si>
+    <t>тем</t>
+  </si>
+  <si>
+    <t>гореть</t>
+  </si>
+  <si>
+    <t>ни</t>
+  </si>
+  <si>
+    <t>электрический</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>питие</t>
+  </si>
+  <si>
+    <t>зловеще</t>
+  </si>
+  <si>
+    <t>солнечный</t>
+  </si>
+  <si>
+    <t>теплый</t>
+  </si>
+  <si>
+    <t>вот</t>
+  </si>
+  <si>
+    <t>яркий</t>
+  </si>
+  <si>
+    <t>дочь</t>
+  </si>
+  <si>
+    <t>божий</t>
+  </si>
+  <si>
+    <t>бы</t>
+  </si>
+  <si>
+    <t>прямой</t>
+  </si>
+  <si>
+    <t>сквозь</t>
+  </si>
+  <si>
+    <t>которой</t>
+  </si>
+  <si>
+    <t>сюда</t>
+  </si>
+  <si>
+    <t>опять</t>
+  </si>
+  <si>
+    <t>темно</t>
+  </si>
+  <si>
+    <t>рассеянный</t>
+  </si>
+  <si>
+    <t>тот</t>
+  </si>
+  <si>
+    <t>ты</t>
+  </si>
+  <si>
+    <t>наскоро</t>
+  </si>
+  <si>
+    <t>последний</t>
+  </si>
+  <si>
+    <t>хоть</t>
+  </si>
+  <si>
+    <t>мы</t>
+  </si>
+  <si>
+    <t>мерклый</t>
+  </si>
+  <si>
+    <t>одиноко</t>
+  </si>
+  <si>
+    <t>тревожный</t>
+  </si>
+  <si>
+    <t>ослепительный</t>
+  </si>
+  <si>
+    <t>мгновение</t>
+  </si>
+  <si>
+    <t>включать</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>эстрадный</t>
+  </si>
+  <si>
+    <t>тушить</t>
+  </si>
+  <si>
+    <t>пронзительный</t>
+  </si>
+  <si>
+    <t>Милый, спокойный свет шёл от ламп ― маленьких полупрозрачных тюльпанов.</t>
+  </si>
+  <si>
+    <t>Этот свет был особый, он горел не для людей в камере, а для того, чтобы их лучше было видно.</t>
+  </si>
+  <si>
+    <t>Горел свет, из крана текла вода, в миске был суп, но и свет, и вода, и хлеб были особые, их давали, они полагались.</t>
+  </si>
+  <si>
+    <t>Движение психической энергии в пространстве, через которое свет летит миллионы лет, будет совершаться мгновенно.</t>
+  </si>
+  <si>
+    <t>Загудела близко машина, и свет фар скользнул по ставням и задел потолок кабинета.</t>
+  </si>
+  <si>
+    <t>Свет бил в глаза ещё более наглый, нагой и обнажающий.</t>
+  </si>
+  <si>
+    <t>Не было ни моря, ни солнца, ни ветра, ни чаек ― была только розовато-желтая мгла под веками да этот проклятый свет.</t>
+  </si>
+  <si>
+    <t>Нет, ты в другой конец смотри ― вот свет погас, занавесь взвилась, и открылось тайное тайных, святая святых ―кабинет начальника следственной части НКВД.</t>
+  </si>
+  <si>
+    <t>Быть может, на ней горел отражённый свет Лины, может, весь мир сделался для него в эти минуты прекрасным, но Клара сейчас показалась ему очень красивой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А то ведь повелось так ― как обыск в редакции левой газеты или ночной арест, так поднимается крик на весь свет:" Помилуйте, нарушено право убежища! </t>
+  </si>
+  <si>
+    <t>По-прежнему горела тусклая лампочка, и противный свет её лежал на всех предметах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">― Ну, абажур, правда, хороший, особенный, чтоб в глаза свет не бил. </t>
+  </si>
+  <si>
+    <t>И тут ослепительный свет сразу вспыхнул перед референтом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я вскочил. Горел весь верхний свет. Возле меня стояла старуха ― дежурная сестра приёмного покоя ― и маленький татарин. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мы выпили, свет стал ярче, я подошёл к ресторанной двери не сгибаясь. </t>
+  </si>
+  <si>
+    <t>Но хотелось бы вывести его на свет и показать собравшимся, кто он и что собой представляет.</t>
+  </si>
+  <si>
+    <t>Свет был таким грубым и жёстким, что она зажмурилась.</t>
+  </si>
+  <si>
+    <t>Рымарь зажёг свет и быстро навёл порядок.</t>
+  </si>
+  <si>
+    <t>противный</t>
+  </si>
+  <si>
+    <t>отраженный</t>
+  </si>
+  <si>
+    <t>спокойный</t>
+  </si>
+  <si>
+    <t>этот</t>
+  </si>
+  <si>
+    <t>проклятый</t>
+  </si>
+  <si>
+    <t>большой</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <t>pronoun</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>conj</t>
+  </si>
+  <si>
+    <t>потушить</t>
+  </si>
+  <si>
+    <t>зажечь</t>
+  </si>
+  <si>
+    <t>гасить</t>
+  </si>
+  <si>
+    <t>приходить</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>рассекать</t>
+  </si>
+  <si>
+    <t>молния</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>вбирать</t>
+  </si>
+  <si>
+    <t>казаться</t>
+  </si>
+  <si>
+    <t>погаснуть</t>
+  </si>
+  <si>
+    <t>появиться</t>
+  </si>
+  <si>
+    <t>быть</t>
+  </si>
+  <si>
+    <t>такой</t>
+  </si>
+  <si>
+    <t>ударить</t>
+  </si>
+  <si>
+    <t>стать</t>
+  </si>
+  <si>
+    <t>президентский</t>
+  </si>
+  <si>
+    <t>проливать</t>
+  </si>
+  <si>
+    <t>выключать</t>
+  </si>
+  <si>
+    <t>родитель</t>
+  </si>
+  <si>
+    <t>гаснуть</t>
+  </si>
+  <si>
+    <t>ржавый</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>девочка</t>
+  </si>
+  <si>
+    <t>сглаживать</t>
+  </si>
+  <si>
+    <t>увидеть</t>
+  </si>
+  <si>
+    <t>разгонять</t>
+  </si>
+  <si>
+    <t>окаменеть</t>
+  </si>
+  <si>
+    <t>фонарь</t>
+  </si>
+  <si>
+    <t>маленький</t>
+  </si>
+  <si>
+    <t>излучать</t>
+  </si>
+  <si>
+    <t>измерять</t>
+  </si>
+  <si>
+    <t>здания</t>
+  </si>
+  <si>
+    <t>литься</t>
+  </si>
+  <si>
+    <t>причалить</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verb</t>
+  </si>
+  <si>
+    <t>гонщик</t>
+  </si>
+  <si>
+    <t>научно-популярный</t>
+  </si>
+  <si>
+    <t>приниматься</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>появляться</t>
+  </si>
+  <si>
+    <t>начинать</t>
+  </si>
+  <si>
+    <t>погасить</t>
+  </si>
+  <si>
+    <t>нести</t>
+  </si>
+  <si>
+    <t>знания</t>
+  </si>
+  <si>
+    <t>представленный</t>
+  </si>
+  <si>
+    <t>потухнуть</t>
+  </si>
+  <si>
+    <t>исходить</t>
+  </si>
+  <si>
+    <t>знать</t>
+  </si>
+  <si>
+    <t>опозорить</t>
+  </si>
+  <si>
+    <t>зажигать</t>
+  </si>
+  <si>
+    <t>закрывать</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>свеча</t>
+  </si>
+  <si>
+    <t>пробиваться</t>
+  </si>
+  <si>
+    <t>фара</t>
+  </si>
+  <si>
+    <t>минута</t>
+  </si>
+  <si>
+    <t>мигнуть</t>
+  </si>
+  <si>
+    <t>падать</t>
+  </si>
+  <si>
+    <t>крутой</t>
+  </si>
+  <si>
+    <t>выключатель</t>
+  </si>
+  <si>
+    <t>сиять</t>
+  </si>
+  <si>
+    <t>Пели птицы. Солнышко мягко сияло свет сквозь листву. В муравейнике шуровали муравьи.</t>
+  </si>
+  <si>
+    <t>бледнеющий</t>
+  </si>
+  <si>
+    <t>осиять</t>
+  </si>
+  <si>
+    <t xml:space="preserve">истина </t>
+  </si>
+  <si>
+    <t>остаться</t>
+  </si>
+  <si>
+    <t>перевернуться</t>
+  </si>
+  <si>
+    <t>трястись</t>
+  </si>
+  <si>
+    <t>считать</t>
+  </si>
+  <si>
+    <t>лампочкв</t>
+  </si>
+  <si>
+    <t>доходить</t>
+  </si>
+  <si>
+    <t>кабинет</t>
+  </si>
+  <si>
+    <t>трое</t>
+  </si>
+  <si>
+    <t>разбавлять</t>
+  </si>
+  <si>
+    <t>загореться</t>
+  </si>
+  <si>
+    <t>пахнуть</t>
+  </si>
+  <si>
+    <t>длинный</t>
+  </si>
+  <si>
+    <t>кончаться</t>
+  </si>
+  <si>
+    <t>удар</t>
+  </si>
+  <si>
+    <t>зелено-абажурный</t>
+  </si>
+  <si>
+    <t>рассматривать</t>
+  </si>
+  <si>
+    <t>отключить</t>
+  </si>
+  <si>
+    <t>бодрствовать</t>
+  </si>
+  <si>
+    <t>они</t>
+  </si>
+  <si>
+    <t>глазеть</t>
+  </si>
+  <si>
+    <t>бояться</t>
+  </si>
+  <si>
+    <t>младенец</t>
+  </si>
+  <si>
+    <t>хотеть</t>
+  </si>
+  <si>
+    <t>зажечься</t>
+  </si>
+  <si>
+    <t>замелькать</t>
+  </si>
+  <si>
+    <t>любовь</t>
+  </si>
+  <si>
+    <t>идти</t>
+  </si>
+  <si>
+    <t>лететь</t>
+  </si>
+  <si>
+    <t>который</t>
+  </si>
+  <si>
+    <t>билть</t>
+  </si>
+  <si>
+    <t>луна</t>
+  </si>
+  <si>
+    <t>глаз</t>
+  </si>
+  <si>
+    <t>вспыхнуть</t>
+  </si>
+  <si>
+    <t>выпить</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -927,7 +1286,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1205,42 +1564,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>300</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -1251,10 +1616,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
+        <v>302</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1265,10 +1636,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1279,7 +1653,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1290,10 +1667,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
+        <v>301</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1304,10 +1687,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1318,10 +1704,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
@@ -1329,24 +1724,36 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>310</v>
+      </c>
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" t="s">
+        <v>311</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>313</v>
+      </c>
+      <c r="C10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" t="s">
+        <v>301</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1357,7 +1764,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>314</v>
+      </c>
+      <c r="C11" t="s">
+        <v>301</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1368,7 +1778,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>302</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1379,7 +1792,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1390,10 +1806,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>315</v>
+      </c>
+      <c r="C14" t="s">
+        <v>301</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -1401,13 +1820,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" t="s">
+        <v>299</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -1415,7 +1840,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>198</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1426,7 +1854,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>203</v>
+      </c>
+      <c r="C17" t="s">
+        <v>300</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -1437,10 +1868,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>317</v>
+      </c>
+      <c r="C18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" t="s">
+        <v>300</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -1450,16 +1887,37 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>319</v>
+      </c>
+      <c r="C20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" t="s">
+        <v>301</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1470,10 +1928,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" t="s">
+        <v>302</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1484,7 +1948,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>300</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -1495,7 +1962,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>222</v>
+        <v>202</v>
+      </c>
+      <c r="D23" t="s">
+        <v>299</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1506,10 +1976,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" t="s">
+        <v>299</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -1520,10 +1996,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>202</v>
+      </c>
+      <c r="C25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25" t="s">
+        <v>299</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -1534,10 +2016,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>320</v>
+      </c>
+      <c r="C26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" t="s">
+        <v>307</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -1548,10 +2036,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" t="s">
+        <v>299</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -1562,10 +2056,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>205</v>
+      </c>
+      <c r="C28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" t="s">
+        <v>311</v>
       </c>
       <c r="E28">
         <v>9</v>
@@ -1576,10 +2076,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>323</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" t="s">
+        <v>311</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1590,10 +2096,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>324</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" t="s">
+        <v>301</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -1604,10 +2116,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" t="s">
+        <v>300</v>
       </c>
       <c r="E31">
         <v>9</v>
@@ -1618,13 +2136,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" t="s">
+        <v>302</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
@@ -1632,13 +2156,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>210</v>
+      </c>
+      <c r="C33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" t="s">
+        <v>311</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
@@ -1646,10 +2176,16 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>325</v>
+      </c>
+      <c r="C34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" t="s">
+        <v>307</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -1660,10 +2196,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" t="s">
+        <v>302</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -1674,10 +2216,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D36" t="s">
+        <v>302</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1688,10 +2236,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>327</v>
+      </c>
+      <c r="C37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" t="s">
+        <v>311</v>
       </c>
       <c r="E37">
         <v>9</v>
@@ -1702,10 +2256,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>235</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>202</v>
+      </c>
+      <c r="C38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" t="s">
+        <v>299</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -1716,10 +2276,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>223</v>
+      </c>
+      <c r="C39" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" t="s">
+        <v>307</v>
       </c>
       <c r="E39">
         <v>9</v>
@@ -1730,10 +2296,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>328</v>
+      </c>
+      <c r="C40" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" t="s">
+        <v>301</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1744,10 +2316,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" t="s">
+        <v>299</v>
       </c>
       <c r="E41">
         <v>9</v>
@@ -1758,7 +2336,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+      <c r="C42" t="s">
+        <v>302</v>
       </c>
       <c r="E42">
         <v>7</v>
@@ -1769,7 +2350,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>330</v>
+      </c>
+      <c r="C43" t="s">
+        <v>301</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -1780,10 +2364,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" t="s">
+        <v>301</v>
       </c>
       <c r="E44">
         <v>7</v>
@@ -1794,10 +2384,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>202</v>
+      </c>
+      <c r="C45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D45" t="s">
+        <v>299</v>
       </c>
       <c r="E45">
         <v>7</v>
@@ -1808,10 +2404,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s">
-        <v>252</v>
+        <v>331</v>
+      </c>
+      <c r="C46" t="s">
+        <v>300</v>
+      </c>
+      <c r="D46" t="s">
+        <v>301</v>
       </c>
       <c r="E46">
         <v>7</v>
@@ -1822,10 +2424,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" t="s">
+        <v>299</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -1835,16 +2443,37 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" t="s">
+        <v>300</v>
+      </c>
+      <c r="D48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" t="s">
+        <v>299</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -1855,10 +2484,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
-        <v>254</v>
+        <v>215</v>
+      </c>
+      <c r="C50" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" t="s">
+        <v>307</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -1869,10 +2504,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B51" t="s">
-        <v>255</v>
+        <v>216</v>
+      </c>
+      <c r="C51" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" t="s">
+        <v>299</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1883,7 +2524,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>256</v>
+        <v>332</v>
+      </c>
+      <c r="D52" t="s">
+        <v>311</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1894,10 +2538,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>218</v>
+      </c>
+      <c r="C53" t="s">
+        <v>308</v>
+      </c>
+      <c r="D53" t="s">
+        <v>307</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1908,10 +2558,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>333</v>
+      </c>
+      <c r="C54" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" t="s">
+        <v>307</v>
       </c>
       <c r="E54">
         <v>9</v>
@@ -1922,10 +2578,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>219</v>
+      </c>
+      <c r="C55" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" t="s">
+        <v>311</v>
       </c>
       <c r="E55">
         <v>10</v>
@@ -1936,10 +2598,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>261</v>
+        <v>334</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="C56" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" t="s">
+        <v>302</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1950,7 +2618,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>209</v>
+      </c>
+      <c r="C57" t="s">
+        <v>307</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1961,7 +2632,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>301</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1972,7 +2646,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>299</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -1983,10 +2660,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>222</v>
+      </c>
+      <c r="C60" t="s">
+        <v>301</v>
+      </c>
+      <c r="D60" t="s">
+        <v>311</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1997,10 +2680,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s">
-        <v>267</v>
+        <v>337</v>
+      </c>
+      <c r="C61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D61" t="s">
+        <v>301</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2011,10 +2700,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="B62" t="s">
-        <v>269</v>
+        <v>338</v>
+      </c>
+      <c r="C62" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" t="s">
+        <v>301</v>
       </c>
       <c r="E62">
         <v>9</v>
@@ -2025,10 +2720,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>224</v>
+      </c>
+      <c r="C63" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" t="s">
+        <v>307</v>
       </c>
       <c r="E63">
         <v>9</v>
@@ -2039,10 +2740,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>202</v>
+      </c>
+      <c r="C64" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" t="s">
+        <v>299</v>
       </c>
       <c r="E64">
         <v>10</v>
@@ -2053,10 +2760,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="B65" t="s">
-        <v>258</v>
+        <v>218</v>
+      </c>
+      <c r="C65" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" t="s">
+        <v>307</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2067,10 +2780,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>339</v>
+      </c>
+      <c r="D66" t="s">
+        <v>299</v>
       </c>
       <c r="E66">
         <v>7</v>
@@ -2081,10 +2800,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>216</v>
+      </c>
+      <c r="C67" t="s">
+        <v>307</v>
+      </c>
+      <c r="D67" t="s">
+        <v>299</v>
       </c>
       <c r="E67">
         <v>9</v>
@@ -2095,10 +2820,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>340</v>
+      </c>
+      <c r="C68" t="s">
+        <v>307</v>
+      </c>
+      <c r="D68" t="s">
+        <v>311</v>
       </c>
       <c r="E68">
         <v>9</v>
@@ -2109,10 +2840,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>341</v>
+      </c>
+      <c r="C69" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" t="s">
+        <v>307</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -2123,10 +2860,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>226</v>
+      </c>
+      <c r="C70" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" t="s">
+        <v>299</v>
       </c>
       <c r="E70">
         <v>9</v>
@@ -2136,13 +2879,31 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>298</v>
+      </c>
+      <c r="B71" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
       <c r="F71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>275</v>
+        <v>227</v>
+      </c>
+      <c r="C72" t="s">
+        <v>307</v>
       </c>
       <c r="E72">
         <v>11</v>
@@ -2153,7 +2914,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>276</v>
+        <v>342</v>
+      </c>
+      <c r="D73" t="s">
+        <v>301</v>
       </c>
       <c r="E73">
         <v>11</v>
@@ -2164,10 +2928,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>229</v>
+      </c>
+      <c r="C74" t="s">
+        <v>308</v>
+      </c>
+      <c r="D74" t="s">
+        <v>308</v>
       </c>
       <c r="E74">
         <v>11</v>
@@ -2178,10 +2948,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>230</v>
+      </c>
+      <c r="C75" t="s">
+        <v>301</v>
+      </c>
+      <c r="D75" t="s">
+        <v>343</v>
       </c>
       <c r="E75">
         <v>9</v>
@@ -2192,10 +2968,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B76" t="s">
-        <v>222</v>
+        <v>202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76" t="s">
+        <v>299</v>
       </c>
       <c r="E76">
         <v>9</v>
@@ -2206,10 +2988,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="C77" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" t="s">
+        <v>299</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -2220,7 +3008,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>194</v>
+      </c>
+      <c r="C78" t="s">
+        <v>307</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2231,10 +3022,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="B79" t="s">
-        <v>281</v>
+        <v>231</v>
+      </c>
+      <c r="C79" t="s">
+        <v>301</v>
+      </c>
+      <c r="D79" t="s">
+        <v>344</v>
       </c>
       <c r="E79">
         <v>9</v>
@@ -2245,7 +3042,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>282</v>
+        <v>232</v>
+      </c>
+      <c r="C80" t="s">
+        <v>311</v>
       </c>
       <c r="E80">
         <v>7</v>
@@ -2254,587 +3054,2323 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" t="s">
+        <v>302</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
       <c r="F81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>346</v>
+      </c>
+      <c r="B82" t="s">
+        <v>347</v>
+      </c>
+      <c r="C82" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" t="s">
+        <v>301</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
       <c r="F82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" t="s">
+        <v>299</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
       <c r="F83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" t="s">
+        <v>299</v>
+      </c>
+      <c r="D84" t="s">
+        <v>307</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
       <c r="F84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85">
+        <v>7</v>
+      </c>
       <c r="F85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86" t="s">
+        <v>308</v>
+      </c>
+      <c r="D86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
       <c r="F86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" t="s">
+        <v>299</v>
+      </c>
+      <c r="D87" t="s">
+        <v>311</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
       <c r="F87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" t="s">
+        <v>350</v>
+      </c>
+      <c r="C88" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" t="s">
+        <v>307</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
       <c r="F88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" t="s">
+        <v>307</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
       <c r="F89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>236</v>
+      </c>
+      <c r="B90" t="s">
+        <v>351</v>
+      </c>
+      <c r="C90" t="s">
+        <v>302</v>
+      </c>
+      <c r="D90" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
       <c r="F90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" t="s">
+        <v>237</v>
+      </c>
+      <c r="C91" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" t="s">
+        <v>326</v>
+      </c>
+      <c r="E91">
+        <v>9</v>
+      </c>
       <c r="F91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>352</v>
+      </c>
+      <c r="C92" t="s">
+        <v>301</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
       <c r="F92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" t="s">
+        <v>299</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
       <c r="F93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>209</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>307</v>
+      </c>
+      <c r="D94" t="s">
+        <v>302</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
       <c r="F94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" t="s">
+        <v>307</v>
+      </c>
+      <c r="D95" t="s">
+        <v>300</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
       <c r="F95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96" t="s">
+        <v>301</v>
+      </c>
+      <c r="D96" t="s">
+        <v>344</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
       <c r="F96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97">
+        <v>9</v>
+      </c>
       <c r="F97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
       <c r="F98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>240</v>
+      </c>
+      <c r="B99" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" t="s">
+        <v>344</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
       <c r="F99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
       <c r="F100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" t="s">
+        <v>307</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
       <c r="F101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" t="s">
+        <v>353</v>
+      </c>
+      <c r="C102" t="s">
+        <v>307</v>
+      </c>
+      <c r="D102" t="s">
+        <v>301</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
       <c r="F102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" t="s">
+        <v>302</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
       <c r="F103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" t="s">
+        <v>243</v>
+      </c>
+      <c r="C104" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" t="s">
+        <v>311</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
       <c r="F104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" t="s">
+        <v>308</v>
+      </c>
+      <c r="D105" t="s">
+        <v>301</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
       <c r="F105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" t="s">
+        <v>308</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
       <c r="F106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" t="s">
+        <v>307</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
       <c r="F107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D108" t="s">
+        <v>301</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
       <c r="F108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>314</v>
+      </c>
+      <c r="B109" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" t="s">
+        <v>301</v>
+      </c>
+      <c r="D109" t="s">
+        <v>299</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
       <c r="F109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>355</v>
+      </c>
+      <c r="B110" t="s">
+        <v>356</v>
+      </c>
+      <c r="C110" t="s">
+        <v>301</v>
+      </c>
+      <c r="D110" t="s">
+        <v>301</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
       <c r="F110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" t="s">
+        <v>358</v>
+      </c>
+      <c r="C111" t="s">
+        <v>307</v>
+      </c>
+      <c r="D111" t="s">
+        <v>311</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
       <c r="F111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B112" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" t="s">
+        <v>299</v>
+      </c>
+      <c r="D112" t="s">
+        <v>308</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
       <c r="F112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" t="s">
+        <v>359</v>
+      </c>
+      <c r="C113" t="s">
+        <v>307</v>
+      </c>
+      <c r="D113" t="s">
+        <v>301</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
       <c r="F113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" t="s">
+        <v>307</v>
+      </c>
+      <c r="D114" t="s">
+        <v>302</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
       <c r="F114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>322</v>
+      </c>
+      <c r="C115" t="s">
+        <v>301</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
       <c r="F115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>299</v>
+      </c>
+      <c r="D116" t="s">
+        <v>311</v>
+      </c>
+      <c r="E116">
+        <v>9</v>
+      </c>
       <c r="F116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>190</v>
+      </c>
+      <c r="B117" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" t="s">
+        <v>299</v>
+      </c>
+      <c r="D117" t="s">
+        <v>307</v>
+      </c>
+      <c r="E117">
+        <v>9</v>
+      </c>
       <c r="F117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118" t="s">
+        <v>192</v>
+      </c>
+      <c r="C118" t="s">
+        <v>299</v>
+      </c>
+      <c r="D118" t="s">
+        <v>302</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
       <c r="F118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" t="s">
+        <v>355</v>
+      </c>
+      <c r="C119" t="s">
+        <v>357</v>
+      </c>
+      <c r="D119" t="s">
+        <v>301</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
       <c r="F119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>192</v>
+      </c>
+      <c r="B120" t="s">
+        <v>360</v>
+      </c>
+      <c r="C120" t="s">
+        <v>302</v>
+      </c>
+      <c r="D120" t="s">
+        <v>311</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
       <c r="F120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" t="s">
+        <v>307</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
       <c r="F121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>314</v>
+      </c>
+      <c r="C122" t="s">
+        <v>301</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
       <c r="F122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>361</v>
+      </c>
+      <c r="B123" t="s">
+        <v>362</v>
+      </c>
+      <c r="C123" t="s">
+        <v>311</v>
+      </c>
+      <c r="D123" t="s">
+        <v>301</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
       <c r="F123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>363</v>
+      </c>
+      <c r="C124" t="s">
+        <v>307</v>
+      </c>
+      <c r="D124" t="s">
+        <v>301</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
       <c r="F124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" t="s">
+        <v>307</v>
+      </c>
+      <c r="D125" t="s">
+        <v>307</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
       <c r="F125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" t="s">
+        <v>307</v>
+      </c>
+      <c r="D126" t="s">
+        <v>307</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
       <c r="F126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127" t="s">
+        <v>311</v>
+      </c>
+      <c r="D127" t="s">
+        <v>344</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
       <c r="F127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>190</v>
+      </c>
+      <c r="C128" t="s">
+        <v>299</v>
+      </c>
+      <c r="E128">
+        <v>9</v>
+      </c>
       <c r="F128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>355</v>
+      </c>
+      <c r="C129" t="s">
+        <v>301</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
       <c r="F129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>366</v>
+      </c>
+      <c r="B130" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" t="s">
+        <v>301</v>
+      </c>
+      <c r="D130" t="s">
+        <v>308</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
       <c r="F130" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>239</v>
+      </c>
+      <c r="C131" t="s">
+        <v>301</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F131" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" t="s">
+        <v>192</v>
+      </c>
+      <c r="C132" t="s">
+        <v>301</v>
+      </c>
+      <c r="D132" t="s">
+        <v>302</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F132" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>254</v>
+      </c>
+      <c r="B133" t="s">
+        <v>368</v>
+      </c>
+      <c r="C133" t="s">
+        <v>300</v>
+      </c>
+      <c r="D133" t="s">
+        <v>307</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F133" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>369</v>
+      </c>
+      <c r="B134" t="s">
+        <v>370</v>
+      </c>
+      <c r="C134" t="s">
+        <v>301</v>
+      </c>
+      <c r="D134" t="s">
+        <v>311</v>
+      </c>
+      <c r="E134">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F134" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135" t="s">
+        <v>308</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F135" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>241</v>
+      </c>
+      <c r="B136" t="s">
+        <v>371</v>
+      </c>
+      <c r="C136" t="s">
+        <v>307</v>
+      </c>
+      <c r="D136" t="s">
+        <v>301</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F136" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>198</v>
+      </c>
+      <c r="B137" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" t="s">
+        <v>308</v>
+      </c>
+      <c r="D137" t="s">
+        <v>308</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F137" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" t="s">
+        <v>372</v>
+      </c>
+      <c r="C138" t="s">
+        <v>308</v>
+      </c>
+      <c r="D138" t="s">
+        <v>301</v>
+      </c>
+      <c r="E138">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F138" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>373</v>
+      </c>
+      <c r="B139" t="s">
+        <v>347</v>
+      </c>
+      <c r="C139" t="s">
+        <v>301</v>
+      </c>
+      <c r="D139" t="s">
+        <v>301</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F139" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" t="s">
+        <v>374</v>
+      </c>
+      <c r="C140" t="s">
+        <v>308</v>
+      </c>
+      <c r="D140" t="s">
+        <v>301</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F140" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>375</v>
+      </c>
+      <c r="B141" t="s">
+        <v>376</v>
+      </c>
+      <c r="C141" t="s">
+        <v>311</v>
+      </c>
+      <c r="D141" t="s">
+        <v>301</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F141" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>377</v>
+      </c>
+      <c r="B142" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" t="s">
+        <v>311</v>
+      </c>
+      <c r="D142" t="s">
+        <v>302</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F142" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>258</v>
+      </c>
+      <c r="C143" t="s">
+        <v>307</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F143" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>314</v>
+      </c>
+      <c r="B144" t="s">
+        <v>191</v>
+      </c>
+      <c r="C144" t="s">
+        <v>301</v>
+      </c>
+      <c r="D144" t="s">
+        <v>300</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F144" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" t="s">
+        <v>190</v>
+      </c>
+      <c r="C145" t="s">
+        <v>307</v>
+      </c>
+      <c r="D145" t="s">
+        <v>299</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F145" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>190</v>
+      </c>
+      <c r="B146" t="s">
+        <v>378</v>
+      </c>
+      <c r="C146" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" t="s">
+        <v>343</v>
+      </c>
+      <c r="E146">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F146" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>314</v>
+      </c>
+      <c r="B147" t="s">
+        <v>191</v>
+      </c>
+      <c r="C147" t="s">
+        <v>301</v>
+      </c>
+      <c r="D147" t="s">
+        <v>300</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F147" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>190</v>
+      </c>
+      <c r="B148" t="s">
+        <v>250</v>
+      </c>
+      <c r="C148" t="s">
+        <v>299</v>
+      </c>
+      <c r="D148" t="s">
+        <v>307</v>
+      </c>
+      <c r="E148">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F148" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>259</v>
+      </c>
+      <c r="C149" t="s">
+        <v>300</v>
+      </c>
+      <c r="E149">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F149" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>316</v>
+      </c>
+      <c r="D150" t="s">
+        <v>301</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F150" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" t="s">
+        <v>379</v>
+      </c>
+      <c r="C151" t="s">
+        <v>307</v>
+      </c>
+      <c r="D151" t="s">
+        <v>301</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F151" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>380</v>
+      </c>
+      <c r="C152" t="s">
+        <v>301</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F152" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>314</v>
+      </c>
+      <c r="B153" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153" t="s">
+        <v>301</v>
+      </c>
+      <c r="D153" t="s">
+        <v>302</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F153" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>245</v>
+      </c>
+      <c r="B154" t="s">
+        <v>363</v>
+      </c>
+      <c r="C154" t="s">
+        <v>307</v>
+      </c>
+      <c r="D154" t="s">
+        <v>301</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F154" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" t="s">
+        <v>192</v>
+      </c>
+      <c r="C155" t="s">
+        <v>301</v>
+      </c>
+      <c r="D155" t="s">
+        <v>302</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
+      <c r="F155" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F155" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>239</v>
+      </c>
+      <c r="B156" t="s">
+        <v>381</v>
+      </c>
+      <c r="C156" t="s">
+        <v>301</v>
+      </c>
+      <c r="D156" t="s">
+        <v>301</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+      <c r="F156" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F156" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>191</v>
+      </c>
+      <c r="B157" t="s">
+        <v>260</v>
+      </c>
+      <c r="C157" t="s">
+        <v>300</v>
+      </c>
+      <c r="D157" t="s">
+        <v>300</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+      <c r="F157" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F157" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>198</v>
+      </c>
+      <c r="B158" t="s">
+        <v>261</v>
+      </c>
+      <c r="C158" t="s">
+        <v>308</v>
+      </c>
+      <c r="D158" t="s">
+        <v>308</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F158" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>202</v>
+      </c>
+      <c r="B159" t="s">
+        <v>192</v>
+      </c>
+      <c r="C159" t="s">
+        <v>299</v>
+      </c>
+      <c r="D159" t="s">
+        <v>302</v>
+      </c>
+      <c r="E159">
+        <v>11</v>
+      </c>
+      <c r="F159" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F159" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>262</v>
+      </c>
+      <c r="B160" t="s">
+        <v>382</v>
+      </c>
+      <c r="C160" t="s">
+        <v>307</v>
+      </c>
+      <c r="D160" t="s">
+        <v>307</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+      <c r="F160" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F160" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" t="s">
+        <v>299</v>
+      </c>
+      <c r="E161">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F161" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>383</v>
+      </c>
+      <c r="B162" t="s">
+        <v>314</v>
+      </c>
+      <c r="C162" t="s">
+        <v>301</v>
+      </c>
+      <c r="D162" t="s">
+        <v>301</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F162" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>384</v>
+      </c>
+      <c r="B163" t="s">
+        <v>314</v>
+      </c>
+      <c r="C163" t="s">
+        <v>311</v>
+      </c>
+      <c r="D163" t="s">
+        <v>301</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="F163" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F163" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>385</v>
+      </c>
+      <c r="D164" t="s">
+        <v>307</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F164" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>322</v>
+      </c>
+      <c r="B165" t="s">
+        <v>386</v>
+      </c>
+      <c r="C165" t="s">
+        <v>301</v>
+      </c>
+      <c r="D165" t="s">
+        <v>301</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F165" t="s">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>273</v>
+      </c>
+      <c r="B166" t="s">
+        <v>263</v>
+      </c>
+      <c r="C166" t="s">
+        <v>301</v>
+      </c>
+      <c r="D166" t="s">
+        <v>308</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F166" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>387</v>
+      </c>
+      <c r="C167" t="s">
+        <v>301</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F167" t="s">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>240</v>
+      </c>
+      <c r="B168" t="s">
+        <v>240</v>
+      </c>
+      <c r="C168" t="s">
+        <v>344</v>
+      </c>
+      <c r="D168" t="s">
+        <v>344</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F168" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>198</v>
+      </c>
+      <c r="B169" t="s">
+        <v>388</v>
+      </c>
+      <c r="C169" t="s">
+        <v>308</v>
+      </c>
+      <c r="D169" t="s">
+        <v>301</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F169" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>389</v>
+      </c>
+      <c r="B170" t="s">
+        <v>239</v>
+      </c>
+      <c r="C170" t="s">
+        <v>300</v>
+      </c>
+      <c r="D170" t="s">
+        <v>301</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F170" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>264</v>
+      </c>
+      <c r="D171" t="s">
+        <v>300</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F171" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>265</v>
+      </c>
+      <c r="B172" t="s">
+        <v>266</v>
+      </c>
+      <c r="C172" t="s">
+        <v>307</v>
+      </c>
+      <c r="D172" t="s">
+        <v>308</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F172" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>267</v>
+      </c>
+      <c r="B173" t="s">
+        <v>193</v>
+      </c>
+      <c r="C173" t="s">
+        <v>307</v>
+      </c>
+      <c r="D173" t="s">
+        <v>308</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F173" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>242</v>
+      </c>
+      <c r="B174" t="s">
+        <v>390</v>
+      </c>
+      <c r="C174" t="s">
+        <v>307</v>
+      </c>
+      <c r="D174" t="s">
+        <v>301</v>
+      </c>
+      <c r="E174">
+        <v>10</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F174" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>270</v>
+      </c>
+      <c r="C175" t="s">
+        <v>301</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F175" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>269</v>
+      </c>
+      <c r="B176" t="s">
+        <v>314</v>
+      </c>
+      <c r="C176" t="s">
+        <v>311</v>
+      </c>
+      <c r="D176" t="s">
+        <v>301</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F176" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>391</v>
+      </c>
+      <c r="B177" t="s">
+        <v>270</v>
+      </c>
+      <c r="C177" t="s">
+        <v>301</v>
+      </c>
+      <c r="D177" t="s">
+        <v>301</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+      <c r="F177" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F177" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" t="s">
+        <v>392</v>
+      </c>
+      <c r="C178" t="s">
+        <v>299</v>
+      </c>
+      <c r="D178" t="s">
+        <v>311</v>
+      </c>
+      <c r="E178">
+        <v>9</v>
+      </c>
+      <c r="F178" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F178" t="s">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>259</v>
+      </c>
+      <c r="B179" t="s">
+        <v>271</v>
+      </c>
+      <c r="C179" t="s">
+        <v>300</v>
+      </c>
+      <c r="D179" t="s">
+        <v>299</v>
+      </c>
+      <c r="E179">
+        <v>9</v>
+      </c>
+      <c r="F179" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F179" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>192</v>
+      </c>
+      <c r="B180" t="s">
+        <v>363</v>
+      </c>
+      <c r="C180" t="s">
+        <v>302</v>
+      </c>
+      <c r="D180" t="s">
+        <v>301</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F180" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>272</v>
+      </c>
+      <c r="B181" t="s">
+        <v>192</v>
+      </c>
+      <c r="C181" t="s">
+        <v>307</v>
+      </c>
+      <c r="D181" t="s">
+        <v>302</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F181" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>273</v>
+      </c>
+      <c r="B182" t="s">
+        <v>393</v>
+      </c>
+      <c r="C182" t="s">
+        <v>301</v>
+      </c>
+      <c r="D182" t="s">
+        <v>301</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+      <c r="F182" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F182" t="s">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>211</v>
+      </c>
+      <c r="B183" t="s">
+        <v>316</v>
+      </c>
+      <c r="C183" t="s">
+        <v>307</v>
+      </c>
+      <c r="D183" t="s">
+        <v>301</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F183" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>347</v>
+      </c>
+      <c r="B184" t="s">
+        <v>195</v>
+      </c>
+      <c r="C184" t="s">
+        <v>301</v>
+      </c>
+      <c r="D184" t="s">
+        <v>302</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="F184" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F184" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>394</v>
+      </c>
+      <c r="B185" t="s">
+        <v>395</v>
+      </c>
+      <c r="C185" t="s">
+        <v>301</v>
+      </c>
+      <c r="D185" t="s">
+        <v>301</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F185" t="s">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>274</v>
+      </c>
+      <c r="B186" t="s">
+        <v>396</v>
+      </c>
+      <c r="C186" t="s">
+        <v>307</v>
+      </c>
+      <c r="D186" t="s">
+        <v>311</v>
+      </c>
+      <c r="E186">
+        <v>7</v>
+      </c>
+      <c r="F186" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F186" t="s">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>209</v>
+      </c>
+      <c r="C187" t="s">
+        <v>307</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F187" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B188" t="s">
+        <v>397</v>
+      </c>
+      <c r="C188" t="s">
+        <v>307</v>
+      </c>
+      <c r="D188" t="s">
+        <v>301</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
       <c r="F188" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B189" t="s">
+        <v>316</v>
+      </c>
+      <c r="C189" t="s">
+        <v>300</v>
+      </c>
+      <c r="D189" t="s">
+        <v>301</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
       <c r="F189" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B190" t="s">
+        <v>216</v>
+      </c>
+      <c r="C190" t="s">
+        <v>301</v>
+      </c>
+      <c r="D190" t="s">
+        <v>299</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
       <c r="F190" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B191" t="s">
+        <v>398</v>
+      </c>
+      <c r="C191" t="s">
+        <v>300</v>
+      </c>
+      <c r="D191" t="s">
+        <v>301</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
       <c r="F191" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>360</v>
+      </c>
+      <c r="C192" t="s">
+        <v>302</v>
+      </c>
+      <c r="D192" t="s">
+        <v>311</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
       <c r="F192" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="2"/>
+      <c r="B193" t="s">
+        <v>400</v>
+      </c>
+      <c r="D193" t="s">
+        <v>301</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C194" t="s">
+        <v>307</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>247</v>
+      </c>
+      <c r="B195" t="s">
+        <v>314</v>
+      </c>
+      <c r="C195" t="s">
+        <v>308</v>
+      </c>
+      <c r="D195" t="s">
+        <v>301</v>
+      </c>
+      <c r="E195">
+        <v>3</v>
+      </c>
+      <c r="F195" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>294</v>
+      </c>
+      <c r="B196" t="s">
+        <v>401</v>
+      </c>
+      <c r="C196" t="s">
+        <v>307</v>
+      </c>
+      <c r="D196" t="s">
+        <v>311</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>228</v>
+      </c>
+      <c r="C197" t="s">
+        <v>308</v>
+      </c>
+      <c r="E197">
+        <v>10</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>293</v>
+      </c>
+      <c r="B198" t="s">
+        <v>207</v>
+      </c>
+      <c r="C198" t="s">
+        <v>307</v>
+      </c>
+      <c r="D198" t="s">
+        <v>300</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>402</v>
+      </c>
+      <c r="B199" t="s">
+        <v>231</v>
+      </c>
+      <c r="C199" t="s">
+        <v>311</v>
+      </c>
+      <c r="D199" t="s">
+        <v>344</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>268</v>
+      </c>
+      <c r="B200" t="s">
+        <v>403</v>
+      </c>
+      <c r="C200" t="s">
+        <v>307</v>
+      </c>
+      <c r="D200" t="s">
+        <v>301</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>211</v>
+      </c>
+      <c r="C201" t="s">
+        <v>307</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+      <c r="F201" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>404</v>
+      </c>
+      <c r="B202" t="s">
+        <v>319</v>
+      </c>
+      <c r="C202" t="s">
+        <v>301</v>
+      </c>
+      <c r="D202" t="s">
+        <v>301</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F193" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F194" t="s">
+      <c r="B203" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F195" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F196" t="s">
-        <v>194</v>
+      <c r="C203" t="s">
+        <v>299</v>
+      </c>
+      <c r="D203" t="s">
+        <v>302</v>
+      </c>
+      <c r="E203">
+        <v>4</v>
+      </c>
+      <c r="F203" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>316</v>
+      </c>
+      <c r="D204" t="s">
+        <v>301</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>304</v>
+      </c>
+      <c r="B205" t="s">
+        <v>192</v>
+      </c>
+      <c r="C205" t="s">
+        <v>301</v>
+      </c>
+      <c r="D205" t="s">
+        <v>302</v>
+      </c>
+      <c r="E205">
+        <v>3</v>
+      </c>
+      <c r="F205" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>